--- a/Datasets/paleo_observations.xlsx
+++ b/Datasets/paleo_observations.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmpug\Documents\UCSC stuff\Python_Scripts\TP_Phe_Project\TP_baseline_coupling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D30754-82D1-44CE-BB64-EC72B6CD03BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799C876-C7E3-4C81-B4D8-1D3C8A187878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" firstSheet="2" activeTab="10" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" firstSheet="1" activeTab="10" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="13" r:id="rId1"/>
-    <sheet name="Sherwood_gold" sheetId="2" r:id="rId2"/>
+    <sheet name="Sherwood_NPSG" sheetId="2" r:id="rId2"/>
     <sheet name="Pugsley_SR" sheetId="12" r:id="rId3"/>
-    <sheet name="Shen_Pioneer" sheetId="1" r:id="rId4"/>
-    <sheet name="Shen_MontereyCanyon" sheetId="3" r:id="rId5"/>
+    <sheet name="Shen_PI" sheetId="1" r:id="rId4"/>
+    <sheet name="Shen_MC" sheetId="3" r:id="rId5"/>
     <sheet name="Glynn_KR" sheetId="5" r:id="rId6"/>
-    <sheet name="Delong_Bering" sheetId="6" r:id="rId7"/>
+    <sheet name="Delong_BS" sheetId="6" r:id="rId7"/>
     <sheet name="Batista_SBB" sheetId="7" r:id="rId8"/>
-    <sheet name="Strzepek_ETas" sheetId="8" r:id="rId9"/>
-    <sheet name="Strzepek_SWTas" sheetId="9" r:id="rId10"/>
+    <sheet name="Strzepek_ET" sheetId="8" r:id="rId9"/>
+    <sheet name="Strzepek_SWT" sheetId="9" r:id="rId10"/>
     <sheet name="Strzepek_LHR" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -895,7 +895,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -935,15 +935,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,40 +1278,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1" ht="90" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" t="s">
@@ -1324,13 +1323,13 @@
       <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1344,13 +1343,13 @@
       <c r="C4" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1386,13 +1385,13 @@
       <c r="C7" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1406,10 +1405,10 @@
       <c r="C8" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1423,10 +1422,10 @@
       <c r="C9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>158</v>
       </c>
       <c r="F9" t="s">
@@ -1443,10 +1442,10 @@
       <c r="C10" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F10" t="s">
@@ -1463,10 +1462,10 @@
       <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F11" t="s">
@@ -1483,10 +1482,10 @@
       <c r="C12" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F12" t="s">

--- a/Datasets/paleo_observations.xlsx
+++ b/Datasets/paleo_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmpug\Documents\UCSC stuff\Python_Scripts\TP_Phe_Project\TP_baseline_coupling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799C876-C7E3-4C81-B4D8-1D3C8A187878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B2758-3789-4A7F-830E-03017158D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" firstSheet="1" activeTab="10" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="959" xr2:uid="{3437F382-48D9-49CA-9E49-02816E47538F}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="13" r:id="rId1"/>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BD6652-7E22-48D6-B660-69F707629B2A}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2017,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3704701-5F6F-42B5-8D6F-91E8701B9943}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
